--- a/excel/finished/wg8#高炉/8高炉考核月报表.xlsx
+++ b/excel/finished/wg8#高炉/8高炉考核月报表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\templates\8高炉\炉内报表\cn_zh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYSD 12\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4762969-BFBB-4991-AC0A-406CB32B1349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BFFFE5-87A4-43C6-A83A-19EE38DF4493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="铁罐装载率" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +286,10 @@
     <t>煤量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>焦丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -846,9 +852,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,15 +891,9 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -877,27 +904,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1182,20 +1188,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="28.2" x14ac:dyDescent="0.5">
       <c r="B2" s="33" t="s">
         <v>26</v>
       </c>
@@ -1203,7 +1209,7 @@
       <c r="D2" s="34"/>
       <c r="E2" s="35"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="21"/>
       <c r="C4" s="22" t="s">
         <v>23</v>
@@ -1227,7 +1233,7 @@
       </c>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -1238,7 +1244,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -1315,7 +1321,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -1337,7 +1343,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>11</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>12</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>13</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>14</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>15</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>16</v>
       </c>
@@ -1420,7 +1426,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>17</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>19</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>20</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
@@ -1481,7 +1487,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>21</v>
       </c>
@@ -1492,7 +1498,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>22</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>23</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>24</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>25</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>26</v>
       </c>
@@ -1547,7 +1553,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>27</v>
       </c>
@@ -1558,7 +1564,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>28</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>29</v>
       </c>
@@ -1580,7 +1586,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>30</v>
       </c>
@@ -1591,7 +1597,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>31</v>
       </c>
@@ -1602,7 +1608,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
@@ -1619,7 +1625,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
@@ -1649,801 +1655,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="8"/>
-    <col min="13" max="13" width="9.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="255" width="9" style="6"/>
-    <col min="256" max="256" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="257" max="257" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="260" max="262" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="9.375" style="6" customWidth="1"/>
-    <col min="264" max="264" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="9.375" style="6" customWidth="1"/>
-    <col min="266" max="266" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="9" style="6"/>
-    <col min="268" max="268" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="269" max="511" width="9" style="6"/>
-    <col min="512" max="512" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="513" max="513" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="516" max="518" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="9.375" style="6" customWidth="1"/>
-    <col min="520" max="520" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="9.375" style="6" customWidth="1"/>
-    <col min="522" max="522" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="9" style="6"/>
-    <col min="524" max="524" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="525" max="767" width="9" style="6"/>
-    <col min="768" max="768" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="769" max="769" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="772" max="774" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="9.375" style="6" customWidth="1"/>
-    <col min="776" max="776" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="9.375" style="6" customWidth="1"/>
-    <col min="778" max="778" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="9" style="6"/>
-    <col min="780" max="780" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="781" max="1023" width="9" style="6"/>
-    <col min="1024" max="1024" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="1025" max="1025" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1030" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="9.375" style="6" customWidth="1"/>
-    <col min="1032" max="1032" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="9.375" style="6" customWidth="1"/>
-    <col min="1034" max="1034" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="9" style="6"/>
-    <col min="1036" max="1036" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="1037" max="1279" width="9" style="6"/>
-    <col min="1280" max="1280" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="1281" max="1281" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1286" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="9.375" style="6" customWidth="1"/>
-    <col min="1288" max="1288" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="9.375" style="6" customWidth="1"/>
-    <col min="1290" max="1290" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="9" style="6"/>
-    <col min="1292" max="1292" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="1293" max="1535" width="9" style="6"/>
-    <col min="1536" max="1536" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="1537" max="1537" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1542" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="9.375" style="6" customWidth="1"/>
-    <col min="1544" max="1544" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="9.375" style="6" customWidth="1"/>
-    <col min="1546" max="1546" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="9" style="6"/>
-    <col min="1548" max="1548" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="1549" max="1791" width="9" style="6"/>
-    <col min="1792" max="1792" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="1793" max="1793" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1798" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="9.375" style="6" customWidth="1"/>
-    <col min="1800" max="1800" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="9.375" style="6" customWidth="1"/>
-    <col min="1802" max="1802" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="9" style="6"/>
-    <col min="1804" max="1804" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="1805" max="2047" width="9" style="6"/>
-    <col min="2048" max="2048" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2049" max="2049" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2054" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="9.375" style="6" customWidth="1"/>
-    <col min="2056" max="2056" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="9.375" style="6" customWidth="1"/>
-    <col min="2058" max="2058" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="9" style="6"/>
-    <col min="2060" max="2060" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2061" max="2303" width="9" style="6"/>
-    <col min="2304" max="2304" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2305" max="2305" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2310" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="9.375" style="6" customWidth="1"/>
-    <col min="2312" max="2312" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="9.375" style="6" customWidth="1"/>
-    <col min="2314" max="2314" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="9" style="6"/>
-    <col min="2316" max="2316" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2317" max="2559" width="9" style="6"/>
-    <col min="2560" max="2560" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2561" max="2561" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2566" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="9.375" style="6" customWidth="1"/>
-    <col min="2568" max="2568" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="9.375" style="6" customWidth="1"/>
-    <col min="2570" max="2570" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="9" style="6"/>
-    <col min="2572" max="2572" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2573" max="2815" width="9" style="6"/>
-    <col min="2816" max="2816" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2817" max="2817" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2822" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="9.375" style="6" customWidth="1"/>
-    <col min="2824" max="2824" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="9.375" style="6" customWidth="1"/>
-    <col min="2826" max="2826" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="9" style="6"/>
-    <col min="2828" max="2828" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2829" max="3071" width="9" style="6"/>
-    <col min="3072" max="3072" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3073" max="3073" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3078" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="9.375" style="6" customWidth="1"/>
-    <col min="3080" max="3080" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="9.375" style="6" customWidth="1"/>
-    <col min="3082" max="3082" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="9" style="6"/>
-    <col min="3084" max="3084" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3085" max="3327" width="9" style="6"/>
-    <col min="3328" max="3328" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3329" max="3329" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3334" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="9.375" style="6" customWidth="1"/>
-    <col min="3336" max="3336" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="9.375" style="6" customWidth="1"/>
-    <col min="3338" max="3338" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="9" style="6"/>
-    <col min="3340" max="3340" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3341" max="3583" width="9" style="6"/>
-    <col min="3584" max="3584" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3585" max="3585" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3590" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="9.375" style="6" customWidth="1"/>
-    <col min="3592" max="3592" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="9.375" style="6" customWidth="1"/>
-    <col min="3594" max="3594" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="9" style="6"/>
-    <col min="3596" max="3596" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3597" max="3839" width="9" style="6"/>
-    <col min="3840" max="3840" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3841" max="3841" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3846" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="9.375" style="6" customWidth="1"/>
-    <col min="3848" max="3848" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="9.375" style="6" customWidth="1"/>
-    <col min="3850" max="3850" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="9" style="6"/>
-    <col min="3852" max="3852" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3853" max="4095" width="9" style="6"/>
-    <col min="4096" max="4096" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4097" max="4097" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4102" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="9.375" style="6" customWidth="1"/>
-    <col min="4104" max="4104" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="9.375" style="6" customWidth="1"/>
-    <col min="4106" max="4106" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="9" style="6"/>
-    <col min="4108" max="4108" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4109" max="4351" width="9" style="6"/>
-    <col min="4352" max="4352" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4353" max="4353" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4358" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="9.375" style="6" customWidth="1"/>
-    <col min="4360" max="4360" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="9.375" style="6" customWidth="1"/>
-    <col min="4362" max="4362" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="9" style="6"/>
-    <col min="4364" max="4364" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4365" max="4607" width="9" style="6"/>
-    <col min="4608" max="4608" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4609" max="4609" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4614" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="9.375" style="6" customWidth="1"/>
-    <col min="4616" max="4616" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="9.375" style="6" customWidth="1"/>
-    <col min="4618" max="4618" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="9" style="6"/>
-    <col min="4620" max="4620" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4621" max="4863" width="9" style="6"/>
-    <col min="4864" max="4864" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4865" max="4865" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4870" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="9.375" style="6" customWidth="1"/>
-    <col min="4872" max="4872" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="9.375" style="6" customWidth="1"/>
-    <col min="4874" max="4874" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="9" style="6"/>
-    <col min="4876" max="4876" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4877" max="5119" width="9" style="6"/>
-    <col min="5120" max="5120" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5121" max="5121" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5126" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="9.375" style="6" customWidth="1"/>
-    <col min="5128" max="5128" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="9.375" style="6" customWidth="1"/>
-    <col min="5130" max="5130" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="9" style="6"/>
-    <col min="5132" max="5132" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5133" max="5375" width="9" style="6"/>
-    <col min="5376" max="5376" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5377" max="5377" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5382" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="9.375" style="6" customWidth="1"/>
-    <col min="5384" max="5384" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="9.375" style="6" customWidth="1"/>
-    <col min="5386" max="5386" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="9" style="6"/>
-    <col min="5388" max="5388" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5389" max="5631" width="9" style="6"/>
-    <col min="5632" max="5632" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5633" max="5633" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5638" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="9.375" style="6" customWidth="1"/>
-    <col min="5640" max="5640" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="9.375" style="6" customWidth="1"/>
-    <col min="5642" max="5642" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="9" style="6"/>
-    <col min="5644" max="5644" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5645" max="5887" width="9" style="6"/>
-    <col min="5888" max="5888" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5889" max="5889" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5894" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="9.375" style="6" customWidth="1"/>
-    <col min="5896" max="5896" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="9.375" style="6" customWidth="1"/>
-    <col min="5898" max="5898" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="9" style="6"/>
-    <col min="5900" max="5900" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5901" max="6143" width="9" style="6"/>
-    <col min="6144" max="6144" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6145" max="6145" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6150" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="9.375" style="6" customWidth="1"/>
-    <col min="6152" max="6152" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="9.375" style="6" customWidth="1"/>
-    <col min="6154" max="6154" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="9" style="6"/>
-    <col min="6156" max="6156" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6157" max="6399" width="9" style="6"/>
-    <col min="6400" max="6400" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6401" max="6401" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6406" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="9.375" style="6" customWidth="1"/>
-    <col min="6408" max="6408" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="9.375" style="6" customWidth="1"/>
-    <col min="6410" max="6410" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="9" style="6"/>
-    <col min="6412" max="6412" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6413" max="6655" width="9" style="6"/>
-    <col min="6656" max="6656" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6657" max="6657" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6662" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="9.375" style="6" customWidth="1"/>
-    <col min="6664" max="6664" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="9.375" style="6" customWidth="1"/>
-    <col min="6666" max="6666" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="9" style="6"/>
-    <col min="6668" max="6668" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6669" max="6911" width="9" style="6"/>
-    <col min="6912" max="6912" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6913" max="6913" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6918" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="9.375" style="6" customWidth="1"/>
-    <col min="6920" max="6920" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="9.375" style="6" customWidth="1"/>
-    <col min="6922" max="6922" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="9" style="6"/>
-    <col min="6924" max="6924" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6925" max="7167" width="9" style="6"/>
-    <col min="7168" max="7168" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7169" max="7169" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7174" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="9.375" style="6" customWidth="1"/>
-    <col min="7176" max="7176" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="9.375" style="6" customWidth="1"/>
-    <col min="7178" max="7178" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="9" style="6"/>
-    <col min="7180" max="7180" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7181" max="7423" width="9" style="6"/>
-    <col min="7424" max="7424" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7425" max="7425" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7430" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="9.375" style="6" customWidth="1"/>
-    <col min="7432" max="7432" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="9.375" style="6" customWidth="1"/>
-    <col min="7434" max="7434" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="9" style="6"/>
-    <col min="7436" max="7436" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7437" max="7679" width="9" style="6"/>
-    <col min="7680" max="7680" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7681" max="7681" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7686" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="9.375" style="6" customWidth="1"/>
-    <col min="7688" max="7688" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="9.375" style="6" customWidth="1"/>
-    <col min="7690" max="7690" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="9" style="6"/>
-    <col min="7692" max="7692" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7693" max="7935" width="9" style="6"/>
-    <col min="7936" max="7936" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7937" max="7937" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7942" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="9.375" style="6" customWidth="1"/>
-    <col min="7944" max="7944" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="9.375" style="6" customWidth="1"/>
-    <col min="7946" max="7946" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="9" style="6"/>
-    <col min="7948" max="7948" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7949" max="8191" width="9" style="6"/>
-    <col min="8192" max="8192" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8193" max="8193" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8198" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="9.375" style="6" customWidth="1"/>
-    <col min="8200" max="8200" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="9.375" style="6" customWidth="1"/>
-    <col min="8202" max="8202" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="9" style="6"/>
-    <col min="8204" max="8204" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8205" max="8447" width="9" style="6"/>
-    <col min="8448" max="8448" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8449" max="8449" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8454" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="9.375" style="6" customWidth="1"/>
-    <col min="8456" max="8456" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="9.375" style="6" customWidth="1"/>
-    <col min="8458" max="8458" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="9" style="6"/>
-    <col min="8460" max="8460" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8461" max="8703" width="9" style="6"/>
-    <col min="8704" max="8704" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8705" max="8705" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8710" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="9.375" style="6" customWidth="1"/>
-    <col min="8712" max="8712" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="9.375" style="6" customWidth="1"/>
-    <col min="8714" max="8714" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="9" style="6"/>
-    <col min="8716" max="8716" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8717" max="8959" width="9" style="6"/>
-    <col min="8960" max="8960" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8961" max="8961" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8966" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="9.375" style="6" customWidth="1"/>
-    <col min="8968" max="8968" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="9.375" style="6" customWidth="1"/>
-    <col min="8970" max="8970" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="9" style="6"/>
-    <col min="8972" max="8972" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8973" max="9215" width="9" style="6"/>
-    <col min="9216" max="9216" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9217" max="9217" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9222" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="9.375" style="6" customWidth="1"/>
-    <col min="9224" max="9224" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="9.375" style="6" customWidth="1"/>
-    <col min="9226" max="9226" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="9" style="6"/>
-    <col min="9228" max="9228" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9229" max="9471" width="9" style="6"/>
-    <col min="9472" max="9472" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9473" max="9473" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9478" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="9.375" style="6" customWidth="1"/>
-    <col min="9480" max="9480" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="9.375" style="6" customWidth="1"/>
-    <col min="9482" max="9482" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="9" style="6"/>
-    <col min="9484" max="9484" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9485" max="9727" width="9" style="6"/>
-    <col min="9728" max="9728" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9729" max="9729" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9734" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="9.375" style="6" customWidth="1"/>
-    <col min="9736" max="9736" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="9.375" style="6" customWidth="1"/>
-    <col min="9738" max="9738" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="9" style="6"/>
-    <col min="9740" max="9740" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9741" max="9983" width="9" style="6"/>
-    <col min="9984" max="9984" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9985" max="9985" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9990" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="9.375" style="6" customWidth="1"/>
-    <col min="9992" max="9992" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="9.375" style="6" customWidth="1"/>
-    <col min="9994" max="9994" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="9" style="6"/>
-    <col min="9996" max="9996" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9997" max="10239" width="9" style="6"/>
-    <col min="10240" max="10240" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="10241" max="10241" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10246" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="9.375" style="6" customWidth="1"/>
-    <col min="10248" max="10248" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="9.375" style="6" customWidth="1"/>
-    <col min="10250" max="10250" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="9" style="6"/>
-    <col min="10252" max="10252" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10253" max="10495" width="9" style="6"/>
-    <col min="10496" max="10496" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="10497" max="10497" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10502" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="9.375" style="6" customWidth="1"/>
-    <col min="10504" max="10504" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="9.375" style="6" customWidth="1"/>
-    <col min="10506" max="10506" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="9" style="6"/>
-    <col min="10508" max="10508" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10509" max="10751" width="9" style="6"/>
-    <col min="10752" max="10752" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="10753" max="10753" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10758" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="9.375" style="6" customWidth="1"/>
-    <col min="10760" max="10760" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="9.375" style="6" customWidth="1"/>
-    <col min="10762" max="10762" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="9" style="6"/>
-    <col min="10764" max="10764" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10765" max="11007" width="9" style="6"/>
-    <col min="11008" max="11008" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11009" max="11009" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11014" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="9.375" style="6" customWidth="1"/>
-    <col min="11016" max="11016" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="9.375" style="6" customWidth="1"/>
-    <col min="11018" max="11018" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="9" style="6"/>
-    <col min="11020" max="11020" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11021" max="11263" width="9" style="6"/>
-    <col min="11264" max="11264" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11265" max="11265" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11270" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="9.375" style="6" customWidth="1"/>
-    <col min="11272" max="11272" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="9.375" style="6" customWidth="1"/>
-    <col min="11274" max="11274" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="9" style="6"/>
-    <col min="11276" max="11276" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11277" max="11519" width="9" style="6"/>
-    <col min="11520" max="11520" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11521" max="11521" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11526" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="9.375" style="6" customWidth="1"/>
-    <col min="11528" max="11528" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="9.375" style="6" customWidth="1"/>
-    <col min="11530" max="11530" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="9" style="6"/>
-    <col min="11532" max="11532" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11533" max="11775" width="9" style="6"/>
-    <col min="11776" max="11776" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11777" max="11777" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11782" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="9.375" style="6" customWidth="1"/>
-    <col min="11784" max="11784" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="9.375" style="6" customWidth="1"/>
-    <col min="11786" max="11786" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="9" style="6"/>
-    <col min="11788" max="11788" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11789" max="12031" width="9" style="6"/>
-    <col min="12032" max="12032" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12033" max="12033" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12038" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="9.375" style="6" customWidth="1"/>
-    <col min="12040" max="12040" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="9.375" style="6" customWidth="1"/>
-    <col min="12042" max="12042" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="9" style="6"/>
-    <col min="12044" max="12044" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12045" max="12287" width="9" style="6"/>
-    <col min="12288" max="12288" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12289" max="12289" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12294" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="9.375" style="6" customWidth="1"/>
-    <col min="12296" max="12296" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="9.375" style="6" customWidth="1"/>
-    <col min="12298" max="12298" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="9" style="6"/>
-    <col min="12300" max="12300" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12301" max="12543" width="9" style="6"/>
-    <col min="12544" max="12544" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12545" max="12545" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12550" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="9.375" style="6" customWidth="1"/>
-    <col min="12552" max="12552" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="9.375" style="6" customWidth="1"/>
-    <col min="12554" max="12554" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="9" style="6"/>
-    <col min="12556" max="12556" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12557" max="12799" width="9" style="6"/>
-    <col min="12800" max="12800" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12801" max="12801" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12806" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="9.375" style="6" customWidth="1"/>
-    <col min="12808" max="12808" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="9.375" style="6" customWidth="1"/>
-    <col min="12810" max="12810" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="9" style="6"/>
-    <col min="12812" max="12812" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12813" max="13055" width="9" style="6"/>
-    <col min="13056" max="13056" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="13057" max="13057" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13062" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="9.375" style="6" customWidth="1"/>
-    <col min="13064" max="13064" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="9.375" style="6" customWidth="1"/>
-    <col min="13066" max="13066" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="9" style="6"/>
-    <col min="13068" max="13068" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13069" max="13311" width="9" style="6"/>
-    <col min="13312" max="13312" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="13313" max="13313" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13318" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="9.375" style="6" customWidth="1"/>
-    <col min="13320" max="13320" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="9.375" style="6" customWidth="1"/>
-    <col min="13322" max="13322" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="9" style="6"/>
-    <col min="13324" max="13324" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13325" max="13567" width="9" style="6"/>
-    <col min="13568" max="13568" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="13569" max="13569" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13574" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="9.375" style="6" customWidth="1"/>
-    <col min="13576" max="13576" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="9.375" style="6" customWidth="1"/>
-    <col min="13578" max="13578" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="9" style="6"/>
-    <col min="13580" max="13580" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13581" max="13823" width="9" style="6"/>
-    <col min="13824" max="13824" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="13825" max="13825" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13830" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="9.375" style="6" customWidth="1"/>
-    <col min="13832" max="13832" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="9.375" style="6" customWidth="1"/>
-    <col min="13834" max="13834" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="9" style="6"/>
-    <col min="13836" max="13836" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13837" max="14079" width="9" style="6"/>
-    <col min="14080" max="14080" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14081" max="14081" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14086" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="9.375" style="6" customWidth="1"/>
-    <col min="14088" max="14088" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="9.375" style="6" customWidth="1"/>
-    <col min="14090" max="14090" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="9" style="6"/>
-    <col min="14092" max="14092" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14093" max="14335" width="9" style="6"/>
-    <col min="14336" max="14336" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14337" max="14337" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14342" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="9.375" style="6" customWidth="1"/>
-    <col min="14344" max="14344" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="9.375" style="6" customWidth="1"/>
-    <col min="14346" max="14346" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="9" style="6"/>
-    <col min="14348" max="14348" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14349" max="14591" width="9" style="6"/>
-    <col min="14592" max="14592" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14593" max="14593" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14598" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="9.375" style="6" customWidth="1"/>
-    <col min="14600" max="14600" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="9.375" style="6" customWidth="1"/>
-    <col min="14602" max="14602" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="9" style="6"/>
-    <col min="14604" max="14604" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14605" max="14847" width="9" style="6"/>
-    <col min="14848" max="14848" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14849" max="14849" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14854" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="9.375" style="6" customWidth="1"/>
-    <col min="14856" max="14856" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="9.375" style="6" customWidth="1"/>
-    <col min="14858" max="14858" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="9" style="6"/>
-    <col min="14860" max="14860" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14861" max="15103" width="9" style="6"/>
-    <col min="15104" max="15104" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15105" max="15105" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15110" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="9.375" style="6" customWidth="1"/>
-    <col min="15112" max="15112" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="9.375" style="6" customWidth="1"/>
-    <col min="15114" max="15114" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="9" style="6"/>
-    <col min="15116" max="15116" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15117" max="15359" width="9" style="6"/>
-    <col min="15360" max="15360" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15361" max="15361" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15366" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="9.375" style="6" customWidth="1"/>
-    <col min="15368" max="15368" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="9.375" style="6" customWidth="1"/>
-    <col min="15370" max="15370" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="9" style="6"/>
-    <col min="15372" max="15372" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15373" max="15615" width="9" style="6"/>
-    <col min="15616" max="15616" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15617" max="15617" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15622" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="9.375" style="6" customWidth="1"/>
-    <col min="15624" max="15624" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="9.375" style="6" customWidth="1"/>
-    <col min="15626" max="15626" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="9" style="6"/>
-    <col min="15628" max="15628" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15629" max="15871" width="9" style="6"/>
-    <col min="15872" max="15872" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15873" max="15873" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15878" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="9.375" style="6" customWidth="1"/>
-    <col min="15880" max="15880" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="9.375" style="6" customWidth="1"/>
-    <col min="15882" max="15882" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="9" style="6"/>
-    <col min="15884" max="15884" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15885" max="16127" width="9" style="6"/>
-    <col min="16128" max="16128" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="16129" max="16129" width="9.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="9.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16134" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="9.375" style="6" customWidth="1"/>
-    <col min="16136" max="16136" width="9.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="9.375" style="6" customWidth="1"/>
-    <col min="16138" max="16138" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="9" style="6"/>
-    <col min="16140" max="16140" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16141" max="16383" width="9" style="6"/>
-    <col min="16384" max="16384" width="9" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
+    </row>
+    <row r="2" spans="1:13" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
@@ -2484,7 +1733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="16"/>
       <c r="C3" s="18" t="s">
@@ -2494,7 +1743,9 @@
       <c r="E3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" s="31" t="s">
         <v>29</v>
       </c>
@@ -2507,8 +1758,8 @@
       <c r="L3" s="16"/>
       <c r="M3" s="17"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -2531,21 +1782,21 @@
         <f>IFERROR(I4*1000/C4,"")</f>
         <v/>
       </c>
-      <c r="K4" s="50" t="str">
+      <c r="K4" s="38" t="str">
         <f>IFERROR((I4+I5)/L4*1000,"")</f>
         <v/>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="40">
         <f>IFERROR(C4+C5,"")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="52" t="str">
+      <c r="M4" s="42" t="str">
         <f>IFERROR(((E4+E5+F4+F5)*0.9951+(G4+G5)*0.969+(I4+I5))*1000/(L4*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2566,12 +1817,12 @@
         <f>IFERROR(I5*1000/C5,"")</f>
         <v/>
       </c>
-      <c r="K5" s="47"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="53"/>
-    </row>
-    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="36">
+      <c r="K5" s="39"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2594,21 +1845,21 @@
         <f t="shared" ref="J6:J65" si="2">IFERROR(I6*1000/C6,"")</f>
         <v/>
       </c>
-      <c r="K6" s="47" t="str">
+      <c r="K6" s="39" t="str">
         <f>IFERROR((I6+I7)/L6*1000,"")</f>
         <v/>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="41">
         <f>IFERROR(C6+C7,"")</f>
         <v>0</v>
       </c>
-      <c r="M6" s="42" t="str">
+      <c r="M6" s="44" t="str">
         <f>IFERROR(((E6+E7+F6+F7)*0.9951+(G6+G7)*0.969+(I6+I7))*1000/(L6*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
       <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
@@ -2629,12 +1880,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
+      <c r="K7" s="39"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2657,21 +1908,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K8" s="47" t="str">
+      <c r="K8" s="39" t="str">
         <f t="shared" ref="K8" si="3">IFERROR((I8+I9)/L8*1000,"")</f>
         <v/>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="41">
         <f t="shared" ref="L8" si="4">IFERROR(C8+C9,"")</f>
         <v>0</v>
       </c>
-      <c r="M8" s="42" t="str">
+      <c r="M8" s="44" t="str">
         <f t="shared" ref="M8" si="5">IFERROR(((E8+E9+F8+F9)*0.9951+(G8+G9)*0.969+(I8+I9))*1000/(L8*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
       <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
@@ -2692,12 +1943,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="48"/>
-    </row>
-    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36">
+      <c r="K9" s="39"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="45"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37">
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2720,21 +1971,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K10" s="47" t="str">
+      <c r="K10" s="39" t="str">
         <f t="shared" ref="K10" si="6">IFERROR((I10+I11)/L10*1000,"")</f>
         <v/>
       </c>
-      <c r="L10" s="40">
+      <c r="L10" s="41">
         <f t="shared" ref="L10" si="7">IFERROR(C10+C11,"")</f>
         <v>0</v>
       </c>
-      <c r="M10" s="42" t="str">
+      <c r="M10" s="44" t="str">
         <f t="shared" ref="M10" si="8">IFERROR(((E10+E11+F10+F11)*0.9951+(G10+G11)*0.969+(I10+I11))*1000/(L10*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
       <c r="B11" s="10" t="s">
         <v>9</v>
       </c>
@@ -2755,12 +2006,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="48"/>
-    </row>
-    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36">
+      <c r="K11" s="39"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="45"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
         <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2783,21 +2034,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K12" s="47" t="str">
+      <c r="K12" s="39" t="str">
         <f t="shared" ref="K12" si="9">IFERROR((I12+I13)/L12*1000,"")</f>
         <v/>
       </c>
-      <c r="L12" s="40">
+      <c r="L12" s="41">
         <f t="shared" ref="L12" si="10">IFERROR(C12+C13,"")</f>
         <v>0</v>
       </c>
-      <c r="M12" s="42" t="str">
+      <c r="M12" s="44" t="str">
         <f t="shared" ref="M12" si="11">IFERROR(((E12+E13+F12+F13)*0.9951+(G12+G13)*0.969+(I12+I13))*1000/(L12*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -2818,12 +2069,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="48"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="36">
+      <c r="K13" s="39"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="37">
         <v>6</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2846,21 +2097,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K14" s="47" t="str">
+      <c r="K14" s="39" t="str">
         <f t="shared" ref="K14" si="12">IFERROR((I14+I15)/L14*1000,"")</f>
         <v/>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="41">
         <f t="shared" ref="L14" si="13">IFERROR(C14+C15,"")</f>
         <v>0</v>
       </c>
-      <c r="M14" s="42" t="str">
+      <c r="M14" s="44" t="str">
         <f t="shared" ref="M14" si="14">IFERROR(((E14+E15+F14+F15)*0.9951+(G14+G15)*0.969+(I14+I15))*1000/(L14*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+    <row r="15" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
       <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
@@ -2881,12 +2132,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K15" s="47"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="48"/>
-    </row>
-    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36">
+      <c r="K15" s="39"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37">
         <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -2909,21 +2160,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K16" s="47" t="str">
+      <c r="K16" s="39" t="str">
         <f t="shared" ref="K16" si="15">IFERROR((I16+I17)/L16*1000,"")</f>
         <v/>
       </c>
-      <c r="L16" s="40">
+      <c r="L16" s="41">
         <f t="shared" ref="L16" si="16">IFERROR(C16+C17,"")</f>
         <v>0</v>
       </c>
-      <c r="M16" s="42" t="str">
+      <c r="M16" s="44" t="str">
         <f t="shared" ref="M16" si="17">IFERROR(((E16+E17+F16+F17)*0.9951+(G16+G17)*0.969+(I16+I17))*1000/(L16*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
       <c r="B17" s="10" t="s">
         <v>9</v>
       </c>
@@ -2944,12 +2195,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K17" s="47"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="36">
+      <c r="K17" s="39"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37">
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -2972,21 +2223,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K18" s="47" t="str">
+      <c r="K18" s="39" t="str">
         <f t="shared" ref="K18" si="18">IFERROR((I18+I19)/L18*1000,"")</f>
         <v/>
       </c>
-      <c r="L18" s="40">
+      <c r="L18" s="41">
         <f t="shared" ref="L18" si="19">IFERROR(C18+C19,"")</f>
         <v>0</v>
       </c>
-      <c r="M18" s="42" t="str">
+      <c r="M18" s="44" t="str">
         <f t="shared" ref="M18" si="20">IFERROR(((E18+E19+F18+F19)*0.9951+(G18+G19)*0.969+(I18+I19))*1000/(L18*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
       <c r="B19" s="10" t="s">
         <v>9</v>
       </c>
@@ -3007,12 +2258,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K19" s="47"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="48"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="36">
+      <c r="K19" s="39"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="45"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37">
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3035,21 +2286,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K20" s="47" t="str">
+      <c r="K20" s="39" t="str">
         <f t="shared" ref="K20" si="21">IFERROR((I20+I21)/L20*1000,"")</f>
         <v/>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="41">
         <f t="shared" ref="L20" si="22">IFERROR(C20+C21,"")</f>
         <v>0</v>
       </c>
-      <c r="M20" s="42" t="str">
+      <c r="M20" s="44" t="str">
         <f t="shared" ref="M20" si="23">IFERROR(((E20+E21+F20+F21)*0.9951+(G20+G21)*0.969+(I20+I21))*1000/(L20*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
       <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
@@ -3070,12 +2321,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="48"/>
-    </row>
-    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36">
+      <c r="K21" s="39"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="45"/>
+    </row>
+    <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37">
         <v>10</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -3098,21 +2349,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K22" s="47" t="str">
+      <c r="K22" s="39" t="str">
         <f t="shared" ref="K22" si="24">IFERROR((I22+I23)/L22*1000,"")</f>
         <v/>
       </c>
-      <c r="L22" s="40">
+      <c r="L22" s="41">
         <f t="shared" ref="L22" si="25">IFERROR(C22+C23,"")</f>
         <v>0</v>
       </c>
-      <c r="M22" s="42" t="str">
+      <c r="M22" s="44" t="str">
         <f t="shared" ref="M22" si="26">IFERROR(((E22+E23+F22+F23)*0.9951+(G22+G23)*0.969+(I22+I23))*1000/(L22*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
       <c r="B23" s="10" t="s">
         <v>9</v>
       </c>
@@ -3133,12 +2384,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="48"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36">
+      <c r="K23" s="39"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="45"/>
+    </row>
+    <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
         <v>11</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -3161,21 +2412,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K24" s="47" t="str">
+      <c r="K24" s="39" t="str">
         <f t="shared" ref="K24" si="27">IFERROR((I24+I25)/L24*1000,"")</f>
         <v/>
       </c>
-      <c r="L24" s="40">
+      <c r="L24" s="41">
         <f t="shared" ref="L24" si="28">IFERROR(C24+C25,"")</f>
         <v>0</v>
       </c>
-      <c r="M24" s="42" t="str">
+      <c r="M24" s="44" t="str">
         <f t="shared" ref="M24" si="29">IFERROR(((E24+E25+F24+F25)*0.9951+(G24+G25)*0.969+(I24+I25))*1000/(L24*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
       <c r="B25" s="10" t="s">
         <v>9</v>
       </c>
@@ -3196,12 +2447,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K25" s="47"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="48"/>
-    </row>
-    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+      <c r="K25" s="39"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="45"/>
+    </row>
+    <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
         <v>12</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -3224,21 +2475,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K26" s="47" t="str">
+      <c r="K26" s="39" t="str">
         <f t="shared" ref="K26" si="30">IFERROR((I26+I27)/L26*1000,"")</f>
         <v/>
       </c>
-      <c r="L26" s="40">
+      <c r="L26" s="41">
         <f t="shared" ref="L26" si="31">IFERROR(C26+C27,"")</f>
         <v>0</v>
       </c>
-      <c r="M26" s="42" t="str">
+      <c r="M26" s="44" t="str">
         <f t="shared" ref="M26" si="32">IFERROR(((E26+E27+F26+F27)*0.9951+(G26+G27)*0.969+(I26+I27))*1000/(L26*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
       <c r="B27" s="10" t="s">
         <v>9</v>
       </c>
@@ -3259,12 +2510,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K27" s="47"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="48"/>
-    </row>
-    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36">
+      <c r="K27" s="39"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="37">
         <v>13</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -3287,21 +2538,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K28" s="47" t="str">
+      <c r="K28" s="39" t="str">
         <f t="shared" ref="K28" si="33">IFERROR((I28+I29)/L28*1000,"")</f>
         <v/>
       </c>
-      <c r="L28" s="40">
+      <c r="L28" s="41">
         <f t="shared" ref="L28" si="34">IFERROR(C28+C29,"")</f>
         <v>0</v>
       </c>
-      <c r="M28" s="42" t="str">
+      <c r="M28" s="44" t="str">
         <f t="shared" ref="M28" si="35">IFERROR(((E28+E29+F28+F29)*0.9951+(G28+G29)*0.969+(I28+I29))*1000/(L28*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36"/>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
       <c r="B29" s="10" t="s">
         <v>9</v>
       </c>
@@ -3322,12 +2573,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K29" s="47"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="48"/>
-    </row>
-    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36">
+      <c r="K29" s="39"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="45"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37">
         <v>14</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -3350,21 +2601,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K30" s="47" t="str">
+      <c r="K30" s="39" t="str">
         <f t="shared" ref="K30" si="36">IFERROR((I30+I31)/L30*1000,"")</f>
         <v/>
       </c>
-      <c r="L30" s="40">
+      <c r="L30" s="41">
         <f t="shared" ref="L30" si="37">IFERROR(C30+C31,"")</f>
         <v>0</v>
       </c>
-      <c r="M30" s="42" t="str">
+      <c r="M30" s="44" t="str">
         <f t="shared" ref="M30" si="38">IFERROR(((E30+E31+F30+F31)*0.9951+(G30+G31)*0.969+(I30+I31))*1000/(L30*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
       <c r="B31" s="10" t="s">
         <v>9</v>
       </c>
@@ -3385,12 +2636,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K31" s="47"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="48"/>
-    </row>
-    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36">
+      <c r="K31" s="39"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="45"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
         <v>15</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -3413,21 +2664,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K32" s="47" t="str">
+      <c r="K32" s="39" t="str">
         <f t="shared" ref="K32" si="39">IFERROR((I32+I33)/L32*1000,"")</f>
         <v/>
       </c>
-      <c r="L32" s="40">
+      <c r="L32" s="41">
         <f t="shared" ref="L32" si="40">IFERROR(C32+C33,"")</f>
         <v>0</v>
       </c>
-      <c r="M32" s="42" t="str">
+      <c r="M32" s="44" t="str">
         <f t="shared" ref="M32" si="41">IFERROR(((E32+E33+F32+F33)*0.9951+(G32+G33)*0.969+(I32+I33))*1000/(L32*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36"/>
+    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
       <c r="B33" s="10" t="s">
         <v>9</v>
       </c>
@@ -3448,12 +2699,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K33" s="47"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="48"/>
-    </row>
-    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36">
+      <c r="K33" s="39"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="45"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37">
         <v>16</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -3476,21 +2727,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K34" s="47" t="str">
+      <c r="K34" s="39" t="str">
         <f t="shared" ref="K34" si="42">IFERROR((I34+I35)/L34*1000,"")</f>
         <v/>
       </c>
-      <c r="L34" s="40">
+      <c r="L34" s="41">
         <f t="shared" ref="L34" si="43">IFERROR(C34+C35,"")</f>
         <v>0</v>
       </c>
-      <c r="M34" s="42" t="str">
+      <c r="M34" s="44" t="str">
         <f t="shared" ref="M34" si="44">IFERROR(((E34+E35+F34+F35)*0.9951+(G34+G35)*0.969+(I34+I35))*1000/(L34*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="36"/>
+    <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
       <c r="B35" s="10" t="s">
         <v>9</v>
       </c>
@@ -3511,12 +2762,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K35" s="47"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="48"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="36">
+      <c r="K35" s="39"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="45"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="37">
         <v>17</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -3539,21 +2790,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K36" s="47" t="str">
+      <c r="K36" s="39" t="str">
         <f t="shared" ref="K36" si="45">IFERROR((I36+I37)/L36*1000,"")</f>
         <v/>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="41">
         <f t="shared" ref="L36" si="46">IFERROR(C36+C37,"")</f>
         <v>0</v>
       </c>
-      <c r="M36" s="42" t="str">
+      <c r="M36" s="44" t="str">
         <f t="shared" ref="M36" si="47">IFERROR(((E36+E37+F36+F37)*0.9951+(G36+G37)*0.969+(I36+I37))*1000/(L36*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36"/>
+    <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
       <c r="B37" s="10" t="s">
         <v>9</v>
       </c>
@@ -3574,12 +2825,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K37" s="47"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="48"/>
-    </row>
-    <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+      <c r="K37" s="39"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="45"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37">
         <v>18</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -3602,21 +2853,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K38" s="47" t="str">
+      <c r="K38" s="39" t="str">
         <f t="shared" ref="K38" si="48">IFERROR((I38+I39)/L38*1000,"")</f>
         <v/>
       </c>
-      <c r="L38" s="40">
+      <c r="L38" s="41">
         <f t="shared" ref="L38" si="49">IFERROR(C38+C39,"")</f>
         <v>0</v>
       </c>
-      <c r="M38" s="42" t="str">
+      <c r="M38" s="44" t="str">
         <f t="shared" ref="M38" si="50">IFERROR(((E38+E39+F38+F39)*0.9951+(G38+G39)*0.969+(I38+I39))*1000/(L38*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36"/>
+    <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
       <c r="B39" s="10" t="s">
         <v>9</v>
       </c>
@@ -3637,12 +2888,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K39" s="47"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="48"/>
-    </row>
-    <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+      <c r="K39" s="39"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="45"/>
+    </row>
+    <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="37">
         <v>19</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -3665,21 +2916,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K40" s="47" t="str">
+      <c r="K40" s="39" t="str">
         <f t="shared" ref="K40" si="51">IFERROR((I40+I41)/L40*1000,"")</f>
         <v/>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="41">
         <f t="shared" ref="L40" si="52">IFERROR(C40+C41,"")</f>
         <v>0</v>
       </c>
-      <c r="M40" s="42" t="str">
+      <c r="M40" s="44" t="str">
         <f t="shared" ref="M40" si="53">IFERROR(((E40+E41+F40+F41)*0.9951+(G40+G41)*0.969+(I40+I41))*1000/(L40*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36"/>
+    <row r="41" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="37"/>
       <c r="B41" s="10" t="s">
         <v>9</v>
       </c>
@@ -3700,12 +2951,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K41" s="47"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="48"/>
-    </row>
-    <row r="42" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="36">
+      <c r="K41" s="39"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="45"/>
+    </row>
+    <row r="42" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37">
         <v>20</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -3728,21 +2979,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K42" s="47" t="str">
+      <c r="K42" s="39" t="str">
         <f t="shared" ref="K42" si="54">IFERROR((I42+I43)/L42*1000,"")</f>
         <v/>
       </c>
-      <c r="L42" s="40">
+      <c r="L42" s="41">
         <f t="shared" ref="L42" si="55">IFERROR(C42+C43,"")</f>
         <v>0</v>
       </c>
-      <c r="M42" s="42" t="str">
+      <c r="M42" s="44" t="str">
         <f t="shared" ref="M42" si="56">IFERROR(((E42+E43+F42+F43)*0.9951+(G42+G43)*0.969+(I42+I43))*1000/(L42*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
+    <row r="43" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37"/>
       <c r="B43" s="10" t="s">
         <v>9</v>
       </c>
@@ -3763,12 +3014,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K43" s="47"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="48"/>
-    </row>
-    <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="36">
+      <c r="K43" s="39"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="45"/>
+    </row>
+    <row r="44" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="37">
         <v>21</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -3791,21 +3042,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K44" s="47" t="str">
+      <c r="K44" s="39" t="str">
         <f t="shared" ref="K44" si="57">IFERROR((I44+I45)/L44*1000,"")</f>
         <v/>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="41">
         <f t="shared" ref="L44" si="58">IFERROR(C44+C45,"")</f>
         <v>0</v>
       </c>
-      <c r="M44" s="42" t="str">
+      <c r="M44" s="44" t="str">
         <f t="shared" ref="M44" si="59">IFERROR(((E44+E45+F44+F45)*0.9951+(G44+G45)*0.969+(I44+I45))*1000/(L44*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="36"/>
+    <row r="45" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
       <c r="B45" s="10" t="s">
         <v>9</v>
       </c>
@@ -3826,12 +3077,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K45" s="47"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="48"/>
-    </row>
-    <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+      <c r="K45" s="39"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="45"/>
+    </row>
+    <row r="46" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="37">
         <v>22</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -3854,21 +3105,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K46" s="47" t="str">
+      <c r="K46" s="39" t="str">
         <f t="shared" ref="K46" si="60">IFERROR((I46+I47)/L46*1000,"")</f>
         <v/>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="41">
         <f t="shared" ref="L46" si="61">IFERROR(C46+C47,"")</f>
         <v>0</v>
       </c>
-      <c r="M46" s="42" t="str">
+      <c r="M46" s="44" t="str">
         <f t="shared" ref="M46" si="62">IFERROR(((E46+E47+F46+F47)*0.9951+(G46+G47)*0.969+(I46+I47))*1000/(L46*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36"/>
+    <row r="47" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="37"/>
       <c r="B47" s="10" t="s">
         <v>9</v>
       </c>
@@ -3889,12 +3140,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K47" s="47"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="48"/>
-    </row>
-    <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="36">
+      <c r="K47" s="39"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="45"/>
+    </row>
+    <row r="48" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="37">
         <v>23</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -3917,21 +3168,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K48" s="47" t="str">
+      <c r="K48" s="39" t="str">
         <f t="shared" ref="K48" si="63">IFERROR((I48+I49)/L48*1000,"")</f>
         <v/>
       </c>
-      <c r="L48" s="40">
+      <c r="L48" s="41">
         <f t="shared" ref="L48" si="64">IFERROR(C48+C49,"")</f>
         <v>0</v>
       </c>
-      <c r="M48" s="42" t="str">
+      <c r="M48" s="44" t="str">
         <f t="shared" ref="M48" si="65">IFERROR(((E48+E49+F48+F49)*0.9951+(G48+G49)*0.969+(I48+I49))*1000/(L48*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="36"/>
+    <row r="49" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
       <c r="B49" s="10" t="s">
         <v>9</v>
       </c>
@@ -3952,12 +3203,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K49" s="47"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="48"/>
-    </row>
-    <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="36">
+      <c r="K49" s="39"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="45"/>
+    </row>
+    <row r="50" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="37">
         <v>24</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -3980,21 +3231,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K50" s="47" t="str">
+      <c r="K50" s="39" t="str">
         <f t="shared" ref="K50" si="66">IFERROR((I50+I51)/L50*1000,"")</f>
         <v/>
       </c>
-      <c r="L50" s="40">
+      <c r="L50" s="41">
         <f t="shared" ref="L50" si="67">IFERROR(C50+C51,"")</f>
         <v>0</v>
       </c>
-      <c r="M50" s="42" t="str">
+      <c r="M50" s="44" t="str">
         <f t="shared" ref="M50" si="68">IFERROR(((E50+E51+F50+F51)*0.9951+(G50+G51)*0.969+(I50+I51))*1000/(L50*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="36"/>
+    <row r="51" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="37"/>
       <c r="B51" s="10" t="s">
         <v>9</v>
       </c>
@@ -4015,12 +3266,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K51" s="47"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="48"/>
-    </row>
-    <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="36">
+      <c r="K51" s="39"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="45"/>
+    </row>
+    <row r="52" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="37">
         <v>25</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -4043,21 +3294,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K52" s="47" t="str">
+      <c r="K52" s="39" t="str">
         <f t="shared" ref="K52" si="69">IFERROR((I52+I53)/L52*1000,"")</f>
         <v/>
       </c>
-      <c r="L52" s="40">
+      <c r="L52" s="41">
         <f t="shared" ref="L52" si="70">IFERROR(C52+C53,"")</f>
         <v>0</v>
       </c>
-      <c r="M52" s="42" t="str">
+      <c r="M52" s="44" t="str">
         <f t="shared" ref="M52" si="71">IFERROR(((E52+E53+F52+F53)*0.9951+(G52+G53)*0.969+(I52+I53))*1000/(L52*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="36"/>
+    <row r="53" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="37"/>
       <c r="B53" s="10" t="s">
         <v>9</v>
       </c>
@@ -4078,12 +3329,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K53" s="47"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="48"/>
-    </row>
-    <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="36">
+      <c r="K53" s="39"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="45"/>
+    </row>
+    <row r="54" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="37">
         <v>26</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -4106,21 +3357,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K54" s="47" t="str">
+      <c r="K54" s="39" t="str">
         <f t="shared" ref="K54" si="72">IFERROR((I54+I55)/L54*1000,"")</f>
         <v/>
       </c>
-      <c r="L54" s="40">
+      <c r="L54" s="41">
         <f t="shared" ref="L54" si="73">IFERROR(C54+C55,"")</f>
         <v>0</v>
       </c>
-      <c r="M54" s="42" t="str">
+      <c r="M54" s="44" t="str">
         <f t="shared" ref="M54" si="74">IFERROR(((E54+E55+F54+F55)*0.9951+(G54+G55)*0.969+(I54+I55))*1000/(L54*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="36"/>
+    <row r="55" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="37"/>
       <c r="B55" s="10" t="s">
         <v>9</v>
       </c>
@@ -4141,12 +3392,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K55" s="47"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="48"/>
-    </row>
-    <row r="56" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="36">
+      <c r="K55" s="39"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="45"/>
+    </row>
+    <row r="56" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="37">
         <v>27</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -4169,21 +3420,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K56" s="47" t="str">
+      <c r="K56" s="39" t="str">
         <f t="shared" ref="K56" si="75">IFERROR((I56+I57)/L56*1000,"")</f>
         <v/>
       </c>
-      <c r="L56" s="40">
+      <c r="L56" s="41">
         <f t="shared" ref="L56" si="76">IFERROR(C56+C57,"")</f>
         <v>0</v>
       </c>
-      <c r="M56" s="42" t="str">
+      <c r="M56" s="44" t="str">
         <f t="shared" ref="M56" si="77">IFERROR(((E56+E57+F56+F57)*0.9951+(G56+G57)*0.969+(I56+I57))*1000/(L56*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="36"/>
+    <row r="57" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
       <c r="B57" s="10" t="s">
         <v>9</v>
       </c>
@@ -4204,12 +3455,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K57" s="47"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="48"/>
-    </row>
-    <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="36">
+      <c r="K57" s="39"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="45"/>
+    </row>
+    <row r="58" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="37">
         <v>28</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -4232,21 +3483,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K58" s="47" t="str">
+      <c r="K58" s="39" t="str">
         <f t="shared" ref="K58" si="78">IFERROR((I58+I59)/L58*1000,"")</f>
         <v/>
       </c>
-      <c r="L58" s="40">
+      <c r="L58" s="41">
         <f t="shared" ref="L58" si="79">IFERROR(C58+C59,"")</f>
         <v>0</v>
       </c>
-      <c r="M58" s="42" t="str">
+      <c r="M58" s="44" t="str">
         <f t="shared" ref="M58" si="80">IFERROR(((E58+E59+F58+F59)*0.9951+(G58+G59)*0.969+(I58+I59))*1000/(L58*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="36"/>
+    <row r="59" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="37"/>
       <c r="B59" s="10" t="s">
         <v>9</v>
       </c>
@@ -4267,12 +3518,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K59" s="47"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="48"/>
-    </row>
-    <row r="60" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="36">
+      <c r="K59" s="39"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="45"/>
+    </row>
+    <row r="60" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="37">
         <v>29</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -4295,21 +3546,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K60" s="47" t="str">
+      <c r="K60" s="39" t="str">
         <f t="shared" ref="K60" si="81">IFERROR((I60+I61)/L60*1000,"")</f>
         <v/>
       </c>
-      <c r="L60" s="40">
+      <c r="L60" s="41">
         <f t="shared" ref="L60" si="82">IFERROR(C60+C61,"")</f>
         <v>0</v>
       </c>
-      <c r="M60" s="42" t="str">
+      <c r="M60" s="44" t="str">
         <f t="shared" ref="M60" si="83">IFERROR(((E60+E61+F60+F61)*0.9951+(G60+G61)*0.969+(I60+I61))*1000/(L60*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="36"/>
+    <row r="61" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="37"/>
       <c r="B61" s="10" t="s">
         <v>9</v>
       </c>
@@ -4330,12 +3581,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K61" s="47"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="48"/>
-    </row>
-    <row r="62" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="36">
+      <c r="K61" s="39"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="45"/>
+    </row>
+    <row r="62" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="37">
         <v>30</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -4358,21 +3609,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K62" s="47" t="str">
+      <c r="K62" s="39" t="str">
         <f t="shared" ref="K62" si="84">IFERROR((I62+I63)/L62*1000,"")</f>
         <v/>
       </c>
-      <c r="L62" s="40">
+      <c r="L62" s="41">
         <f t="shared" ref="L62" si="85">IFERROR(C62+C63,"")</f>
         <v>0</v>
       </c>
-      <c r="M62" s="42" t="str">
+      <c r="M62" s="44" t="str">
         <f t="shared" ref="M62" si="86">IFERROR(((E62+E63+F62+F63)*0.9951+(G62+G63)*0.969+(I62+I63))*1000/(L62*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="36"/>
+    <row r="63" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
       <c r="B63" s="10" t="s">
         <v>9</v>
       </c>
@@ -4393,12 +3644,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K63" s="47"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="48"/>
-    </row>
-    <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="36">
+      <c r="K63" s="39"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="45"/>
+    </row>
+    <row r="64" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="37">
         <v>31</v>
       </c>
       <c r="B64" s="10" t="s">
@@ -4421,21 +3672,21 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K64" s="38" t="str">
+      <c r="K64" s="47" t="str">
         <f t="shared" ref="K64" si="87">IFERROR((I64+I65)/L64*1000,"")</f>
         <v/>
       </c>
-      <c r="L64" s="40">
+      <c r="L64" s="41">
         <f t="shared" ref="L64" si="88">IFERROR(C64+C65,"")</f>
         <v>0</v>
       </c>
-      <c r="M64" s="42" t="str">
+      <c r="M64" s="44" t="str">
         <f t="shared" ref="M64" si="89">IFERROR(((E64+E65+F64+F65)*0.9951+(G64+G65)*0.969+(I64+I65))*1000/(L64*0.994),"")</f>
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37"/>
+    <row r="65" spans="1:13" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="46"/>
       <c r="B65" s="11" t="s">
         <v>9</v>
       </c>
@@ -4456,113 +3707,12 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K65" s="39"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="43"/>
+      <c r="K65" s="48"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="K64:K65"/>
     <mergeCell ref="L64:L65"/>
@@ -4587,6 +3737,107 @@
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="K52:K53"/>
     <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4602,7 +3853,7 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4618,7 +3869,7 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4633,9 +3884,9 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
